--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,45 +515,61 @@
         <v>1116666729</v>
       </c>
       <c r="B2" t="n">
-        <v>2301</v>
+        <v>2340</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>5397</v>
-      </c>
-      <c r="E2" t="n">
-        <v>36600813719</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9808</v>
+        <v>7177</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00000002500139</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6472.00</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1864</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>257134</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41916</v>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>518.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>268931.00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>43479.00</t>
+        </is>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>257100.00</t>
+          <t>268900.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-34.00</t>
+          <t>-31.00</t>
         </is>
       </c>
     </row>
@@ -562,24 +578,26 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>2500139</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6472</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>00000078600010</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1807.00</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>518</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>343.00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -591,23 +609,31 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>50196364</v>
-      </c>
-      <c r="F4" t="n">
-        <v>112615</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>08410702004565</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10036.00</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
-        <v>5631</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>502.00</t>
+        </is>
       </c>
       <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="n">
-        <v>37746</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3054.00</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -620,20 +646,32 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>2904836</v>
-      </c>
-      <c r="F5" t="n">
-        <v>79980</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>07702303942201</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2242.00</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>426.00</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1632.00</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -645,26 +683,949 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>20037109</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2500</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>00000002502270</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3234.00</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>323.00</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>09789585155213</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>54000.00</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>07702007205503</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8371.00</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>419.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>00000050196364</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>112615.00</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5631.00</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>37746.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>07702057162399</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>19180.00</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>07703616031606</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>269.00</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1116666729</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2340</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7177</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>00000002500139</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6472.00</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>518.00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>268931.00</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>43479.00</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>268900.00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-31.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>00000078600010</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1807.00</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>343.00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>08410702004565</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10036.00</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>502.00</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>3054.00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>07702303942201</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2242.00</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>426.00</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1632.00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>00000002502270</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3234.00</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>323.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>09789585155213</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>54000.00</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>07702007205503</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8371.00</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>419.00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>00000050196364</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>112615.00</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>5631.00</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>37746.00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>07702057162399</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>19180.00</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>07703616031606</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>269.00</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1116666729</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2340</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7177</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>00000002500139</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6472.00</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>518.00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>268931.00</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>43479.00</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>268900.00</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>-31.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>00000078600010</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1807.00</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>343.00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>08410702004565</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10036.00</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>502.00</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>3054.00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>07702303942201</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2242.00</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>426.00</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1632.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>00000002502270</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3234.00</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>323.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>09789585155213</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>54000.00</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>07702007205503</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8371.00</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>419.00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>00000050196364</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>112615.00</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>5631.00</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>37746.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>07702057162399</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>19180.00</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>07703616031606</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>269.00</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,17 +496,17 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Tipo_medio</t>
+          <t>Redondeo</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Medio_monto</t>
+          <t>Donacion</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Redondeo</t>
+          <t>Factura</t>
         </is>
       </c>
     </row>
@@ -521,56 +521,38 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>7177</v>
+        <v>7178</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>00000002500139</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6472.00</t>
-        </is>
+          <t>00000002504013</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3231</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>518.00</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>268931.00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>43479.00</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>268900.00</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>-31.00</t>
-        </is>
+      <c r="J2" t="n">
+        <v>259</v>
+      </c>
+      <c r="K2" t="n">
+        <v>266831</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43779</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -583,18 +565,14 @@
           <t>00000078600010</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1807.00</t>
-        </is>
+      <c r="F3" t="n">
+        <v>1807</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>343.00</t>
-        </is>
+      <c r="H3" t="n">
+        <v>343</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -614,31 +592,27 @@
           <t>08410702004565</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10036.00</t>
-        </is>
+      <c r="F4" t="n">
+        <v>10036</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>502.00</t>
-        </is>
+      <c r="H4" t="n">
+        <v>502</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>3054.00</t>
-        </is>
+      <c r="J4" t="n">
+        <v>3054</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>19</v>
+      </c>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -648,29 +622,23 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>07702303942201</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2242.00</t>
-        </is>
+          <t>00000002502270</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3234</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>426.00</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1632.00</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>323</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -685,30 +653,20 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>00000002502270</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3234.00</t>
-        </is>
+          <t>09789585155213</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>54000</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>323.00</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -722,24 +680,24 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09789585155213</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>54000.00</t>
-        </is>
+          <t>00000050196364</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>112615</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5631</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>37746</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -756,18 +714,14 @@
           <t>07702007205503</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8371.00</t>
-        </is>
+      <c r="F8" t="n">
+        <v>8371</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>419.00</t>
-        </is>
+      <c r="H8" t="n">
+        <v>419</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -784,30 +738,20 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>00000050196364</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>112615.00</t>
-        </is>
+          <t>07702425546226</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>24880</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>5631.00</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>37746.00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -821,24 +765,24 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>07702057162399</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>19180.00</t>
-        </is>
+          <t>07703616031606</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>269</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>51</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>60</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -846,104 +790,78 @@
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="A11" t="n">
+        <v>1116666729</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2340</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7177</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>07703616031606</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>269.00</t>
-        </is>
+          <t>00000002500139</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>6472</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>518</v>
+      </c>
+      <c r="K11" t="n">
+        <v>268931</v>
+      </c>
+      <c r="L11" t="n">
+        <v>43479</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-31</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>00000078600010</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1807</v>
+      </c>
+      <c r="G12" t="n">
         <v>4</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>60.00</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1116666729</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2340</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7177</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>00000002500139</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6472.00</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>518.00</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>268931.00</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>43479.00</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>268900.00</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>-31.00</t>
-        </is>
-      </c>
+      <c r="H12" t="n">
+        <v>343</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -952,24 +870,24 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>00000078600010</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1807.00</t>
-        </is>
+          <t>08410702004565</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>10036</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>343.00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>502</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3054</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -983,29 +901,23 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08410702004565</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>10036.00</t>
-        </is>
+          <t>07702303942201</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2242</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>502.00</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>426</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>3054.00</t>
-        </is>
+      <c r="J14" t="n">
+        <v>1632</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1020,29 +932,23 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>07702303942201</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2242.00</t>
-        </is>
+          <t>00000002502270</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3234</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>426.00</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1632.00</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>323</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1057,30 +963,20 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00000002502270</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3234.00</t>
-        </is>
+          <t>09789585155213</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>54000</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>323.00</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1094,21 +990,17 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09789585155213</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>54000.00</t>
-        </is>
+          <t>07702007205503</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>8371</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>419</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1125,24 +1017,24 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>07702007205503</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>8371.00</t>
-        </is>
+          <t>00000050196364</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>112615</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>419.00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>5631</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>37746</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1156,30 +1048,20 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>00000050196364</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>112615.00</t>
-        </is>
+          <t>07702057162399</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>19180</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>5631.00</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>37746.00</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1193,24 +1075,24 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>07702057162399</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>19180.00</t>
-        </is>
+          <t>07703616031606</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>269</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>51</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>60</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1218,104 +1100,78 @@
       <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="A21" t="n">
+        <v>1116666729</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2340</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7179</v>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>07703616031606</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>269.00</t>
-        </is>
+          <t>00000002504013</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3231</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>60.00</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>259</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10100</v>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1116666729</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2340</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>7177</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>00000002500139</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6472.00</t>
-        </is>
+          <t>00000002503715</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>4167</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
+      <c r="H22" t="n">
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>518.00</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>268931.00</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>43479.00</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>268900.00</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>-31.00</t>
-        </is>
-      </c>
+      <c r="J22" t="n">
+        <v>156</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1324,21 +1180,17 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>00000078600010</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1807.00</t>
-        </is>
+          <t>00000002503715</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1954</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>343.00</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1348,284 +1200,6 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>08410702004565</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>10036.00</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>502.00</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>3054.00</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>07702303942201</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2242.00</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>4</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>426.00</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1632.00</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>00000002502270</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3234.00</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>323.00</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>09789585155213</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>54000.00</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>07702007205503</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>8371.00</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>2</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>419.00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>00000050196364</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>112615.00</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>5631.00</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>37746.00</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>07702057162399</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>19180.00</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>07703616031606</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>269.00</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>4</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>60.00</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnco-my.sharepoint.com/personal/endo_rodriguez_externos-co_cencosud_com/Documents/Documentos/Scrip cuadratura/cuadratura/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_48ABDB8C9A75AE3E6A27E01640245E3FB406C14E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A2EC755-CBA3-4B2B-89E8-136AF31A7813}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_48ABCB7C1872680E6235547658E616BE91ECC9DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F717833-C18D-4D47-B4A2-A05819C5849F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19905" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>cajero</t>
   </si>
@@ -46,6 +46,15 @@
     <t>valoriva</t>
   </si>
   <si>
+    <t>ipo</t>
+  </si>
+  <si>
+    <t>valoripo</t>
+  </si>
+  <si>
+    <t>Descuento</t>
+  </si>
+  <si>
     <t>Subtotal</t>
   </si>
   <si>
@@ -58,10 +67,22 @@
     <t>Factura</t>
   </si>
   <si>
-    <t>Descuento</t>
-  </si>
-  <si>
-    <t>00196742001846</t>
+    <t>00000020898908</t>
+  </si>
+  <si>
+    <t>00000020257514</t>
+  </si>
+  <si>
+    <t>00000020272784</t>
+  </si>
+  <si>
+    <t>00000041024355</t>
+  </si>
+  <si>
+    <t>00000077063342</t>
+  </si>
+  <si>
+    <t>00000020036133</t>
   </si>
 </sst>
 </file>
@@ -424,21 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H4"/>
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +496,14 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1116666729</v>
       </c>
@@ -487,48 +511,39 @@
         <v>2301</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>5419</v>
+        <v>4218</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>570000</v>
+        <v>1261</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>570000</v>
+        <v>239</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>70641</v>
+      </c>
+      <c r="M2">
+        <v>-41</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1116666729</v>
-      </c>
-      <c r="B3">
-        <v>2301</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>5420</v>
-      </c>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>513000</v>
+        <v>34407</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -537,33 +552,18 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>513000</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>57000</v>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2753</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1116666729</v>
-      </c>
-      <c r="B4">
-        <v>2301</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>5421</v>
-      </c>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>511707</v>
+        <v>12954</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -572,16 +572,64 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>511707</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>-7</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>56856</v>
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>9082</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>1726</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>2804</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>533</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resource/output.xlsx
+++ b/resource/output.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnco-my.sharepoint.com/personal/endo_rodriguez_externos-co_cencosud_com/Documents/Documentos/Scrip cuadratura/cuadratura/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_48ABCB7C1872680E6235547658E616BE91ECC9DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F717833-C18D-4D47-B4A2-A05819C5849F}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_273784695F5F600F62355476585DCE3A87CED18D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{959196A9-E49E-42A4-AD28-8F5CE8E4C63E}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2895" yWindow="2895" windowWidth="14745" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>cajero</t>
   </si>
@@ -67,22 +80,82 @@
     <t>Factura</t>
   </si>
   <si>
-    <t>00000020898908</t>
-  </si>
-  <si>
-    <t>00000020257514</t>
-  </si>
-  <si>
-    <t>00000020272784</t>
-  </si>
-  <si>
-    <t>00000041024355</t>
-  </si>
-  <si>
-    <t>00000077063342</t>
-  </si>
-  <si>
-    <t>00000020036133</t>
+    <t>00000002500139</t>
+  </si>
+  <si>
+    <t>00000078600010</t>
+  </si>
+  <si>
+    <t>07702044253420</t>
+  </si>
+  <si>
+    <t>00080432105528</t>
+  </si>
+  <si>
+    <t>00000002500281</t>
+  </si>
+  <si>
+    <t>07702132002671</t>
+  </si>
+  <si>
+    <t>07702085012093</t>
+  </si>
+  <si>
+    <t>07702425546226</t>
+  </si>
+  <si>
+    <t>07702001133611</t>
+  </si>
+  <si>
+    <t>07702450011119</t>
+  </si>
+  <si>
+    <t>00000002503714</t>
+  </si>
+  <si>
+    <t>00000020037567</t>
+  </si>
+  <si>
+    <t>00799366186311</t>
+  </si>
+  <si>
+    <t>07707275650505</t>
+  </si>
+  <si>
+    <t>07702714100054</t>
+  </si>
+  <si>
+    <t>07702084137520</t>
+  </si>
+  <si>
+    <t>07702085019023</t>
+  </si>
+  <si>
+    <t>07702024341338</t>
+  </si>
+  <si>
+    <t>07702136645058</t>
+  </si>
+  <si>
+    <t>07702057162399</t>
+  </si>
+  <si>
+    <t>00000002503708</t>
+  </si>
+  <si>
+    <t>00000002503715</t>
+  </si>
+  <si>
+    <t>00000002504016</t>
+  </si>
+  <si>
+    <t>00000002503264</t>
+  </si>
+  <si>
+    <t>00000002504014</t>
+  </si>
+  <si>
+    <t>00000002501235</t>
   </si>
 </sst>
 </file>
@@ -445,15 +518,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -508,34 +582,43 @@
         <v>1116666729</v>
       </c>
       <c r="B2">
-        <v>2301</v>
+        <v>2340</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>4218</v>
+        <v>7333</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>1261</v>
+        <v>5825</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>239</v>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>466</v>
+      </c>
+      <c r="K2">
+        <v>-26699</v>
       </c>
       <c r="L2">
-        <v>70641</v>
+        <v>-240291</v>
       </c>
       <c r="M2">
-        <v>-41</v>
+        <v>41</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -543,19 +626,13 @@
         <v>16</v>
       </c>
       <c r="F3">
-        <v>34407</v>
+        <v>1626</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>2753</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -563,19 +640,13 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>12954</v>
+        <v>8766</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1036</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -583,19 +654,19 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <v>9082</v>
+        <v>125276</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>1726</v>
+        <v>6264</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5">
-        <v>582</v>
+        <v>33151</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -603,19 +674,13 @@
         <v>19</v>
       </c>
       <c r="F6">
-        <v>2804</v>
+        <v>7065</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>533</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>3263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -623,13 +688,848 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>19431</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>2100</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>23571</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>4671</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1116666729</v>
+      </c>
+      <c r="B11">
+        <v>2340</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>7337</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>6472</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>518</v>
+      </c>
+      <c r="L11">
+        <v>-58720</v>
+      </c>
+      <c r="M11">
+        <v>-30</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>9739</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>1807</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>27839</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1392</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1116666729</v>
+      </c>
+      <c r="B15">
+        <v>2340</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>7330</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>4671</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>29321</v>
+      </c>
+      <c r="L15">
+        <v>263889</v>
+      </c>
+      <c r="M15">
+        <v>-39</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>5825</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>1625</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>8766</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>1626</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>2874</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <v>45000</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22">
+        <v>3591</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <v>5391</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>8554</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25">
+        <v>5306</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>3141</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27">
+        <v>3591</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28">
+        <v>18171</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29">
+        <v>6300</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30">
+        <v>15000</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31">
+        <v>29933</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <v>33300</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33">
+        <v>29925</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <v>16975</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1116666729</v>
+      </c>
+      <c r="B35">
+        <v>2340</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>7338</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35">
+        <v>4671</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>-29321</v>
+      </c>
+      <c r="L35">
+        <v>-263889</v>
+      </c>
+      <c r="M35">
+        <v>39</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>5825</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37">
+        <v>1625</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38">
+        <v>8766</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39">
+        <v>1626</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40">
+        <v>2874</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41">
+        <v>45000</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42">
+        <v>3591</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43">
+        <v>5391</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <v>8554</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45">
+        <v>5306</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46">
+        <v>3141</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47">
+        <v>3591</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48">
+        <v>18171</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49">
+        <v>6300</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50">
+        <v>15000</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51">
+        <v>29933</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52">
+        <v>33300</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53">
+        <v>29925</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>16975</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1358</v>
       </c>
     </row>
   </sheetData>
